--- a/weekly/2025-CW08_weight_tracking.xlsx
+++ b/weekly/2025-CW08_weight_tracking.xlsx
@@ -486,11 +486,15 @@
       <c r="B2" t="n">
         <v>100</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>100.3</v>
+      </c>
       <c r="D2" t="n">
         <v>29.1</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>28.9</v>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -503,13 +507,13 @@
         <v>99.40000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>100.55</v>
+        <v>100.8</v>
       </c>
       <c r="D3" t="n">
         <v>29.1</v>
       </c>
       <c r="E3" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
